--- a/resources/tools/wordlist_E-J/lessons/lesson-18.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-18.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,540 +436,540 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(something) drops</t>
+          <t>the rest</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>落ちる|おちる</t>
+          <t>後|あと</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to tidy up</t>
+          <t>air conditioner</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>片付ける|かたづける</t>
+          <t>エアコン</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to think (about); to consider</t>
+          <t>curtain</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>考える|かんがえる</t>
+          <t>カーテン</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(something) goes off</t>
+          <t>cushion</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>消える|きえる</t>
+          <t>クッション</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(something) breaks</t>
+          <t>shampoo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>壊れる|こわれる</t>
+          <t>シャンプー</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to become dirty</t>
+          <t>soy sauce</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>汚れる|よごれる</t>
+          <t>しょう油|しょうゆ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>to place an order</t>
+          <t>switch</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>注文する|ちゅうもんする</t>
+          <t>スイッチ</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sofa</t>
+          <t>soup</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ソファ</t>
+          <t>スープ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>towel</t>
+          <t>skirt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>タオル</t>
+          <t>スカート</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>diary</t>
+          <t>outside</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>日記|にっき</t>
+          <t>外|そと</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t>sofa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>バナナ</t>
+          <t>ソファ</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>popcorn</t>
+          <t>towel</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ポップコーン</t>
+          <t>タオル</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>insect</t>
+          <t>diary</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>虫|むし</t>
+          <t>日記|にっき</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rent</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>家賃|やちん</t>
+          <t>バナナ</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>popcorn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>夕方|ゆうがた</t>
+          <t>ポップコーン</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>answering machine</t>
+          <t>insect</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>留守番電話|るすばんでんわ</t>
+          <t>虫|むし</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>refrigerator</t>
+          <t>rent</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>冷蔵庫|れいぞうこ</t>
+          <t>家賃|やちん</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ろうそく</t>
+          <t>夕方|ゆうがた</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>the rest</t>
+          <t>answering machine</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>後|あと</t>
+          <t>留守番電話|るすばんでんわ</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>air conditioner</t>
+          <t>refrigerator</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>エアコン</t>
+          <t>冷蔵庫|れいぞうこ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>curtain</t>
+          <t>candle</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>カーテン</t>
+          <t>ろうそく</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cushion</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>クッション</t>
+          <t>明るい|あかるい</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>shampoo</t>
+          <t>to feel sick</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>シャンプー</t>
+          <t>気分が悪い|きぶんがわるい</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>soy sauce</t>
+          <t>dark</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>しょう油|しょうゆ</t>
+          <t>暗い|くらい</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>switch</t>
+          <t>embarrassing; to feel embarrassed</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>スイッチ</t>
+          <t>恥ずかしい|はずかしい</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>soup</t>
+          <t>(something) opens</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>スープ</t>
+          <t>開く|あく</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>skirt</t>
+          <t>to apologize</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>スカート</t>
+          <t>謝る|あやまる</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>outside</t>
+          <t>to press; to push</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>外|そと</t>
+          <t>押す|おす</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>to drop (something)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>明るい|あかるい</t>
+          <t>落とす|おとす</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>to feel sick</t>
+          <t>water boils</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>気分が悪い|きぶんがわるい</t>
+          <t>お湯が沸く|おゆがわく</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>dark</t>
+          <t>to fall down</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>暗い|くらい</t>
+          <t>転ぶ|ころぶ</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>embarrassing; to feel embarrassed</t>
+          <t>to break (something)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>恥ずかしい|はずかしい</t>
+          <t>壊す|こわす</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>(something) opens</t>
+          <t>to bloom</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>開く|あく</t>
+          <t>咲く|さく</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>to apologize</t>
+          <t>(something) closes</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>謝る|あやまる</t>
+          <t>閉まる|しまる</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>to press; to push</t>
+          <t>to be saved; to be helped</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>押す|おす</t>
+          <t>助かる|たすかる</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>to drop (something)</t>
+          <t>to ask (a favor)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>落とす|おとす</t>
+          <t>頼む|たのむ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>water boils</t>
+          <t>(something) turns on</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>お湯が沸く|おゆがわく</t>
+          <t>つく</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>to fall down</t>
+          <t>to make dirty</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>転ぶ|ころぶ</t>
+          <t>汚す|よごす</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>to break (something)</t>
+          <t>(something) drops</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>壊す|こわす</t>
+          <t>落ちる|おちる</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>to bloom</t>
+          <t>to tidy up</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>咲く|さく</t>
+          <t>片付ける|かたづける</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>(something) closes</t>
+          <t>to think (about); to consider</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>閉まる|しまる</t>
+          <t>考える|かんがえる</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>to be saved; to be helped</t>
+          <t>(something) goes off</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>助かる|たすかる</t>
+          <t>消える|きえる</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>to ask (a favor)</t>
+          <t>(something) breaks</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>頼む|たのむ</t>
+          <t>壊れる|こわれる</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>(something) turns on</t>
+          <t>to become dirty</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>つく</t>
+          <t>汚れる|よごれる</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>to make dirty</t>
+          <t>to place an order</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>汚す|よごす</t>
+          <t>注文する|ちゅうもんする</t>
         </is>
       </c>
     </row>
@@ -1016,700 +1084,700 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>授業|じゅぎょう</t>
+          <t>目的|もくてき</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>eye</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>職業|しょくぎょう</t>
+          <t>目|め</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>eye drops</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>産業|さんぎょう</t>
+          <t>目薬|めぐすり</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>service industry</t>
+          <t>the second</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>サービス業|サービスぎょう</t>
+          <t>二番目|にばんめ</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>exam</t>
+          <t>one's superiors</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>試験|しけん</t>
+          <t>目上の人|めうえのひと</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>game; match</t>
+          <t>modern</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>試合|しあい</t>
+          <t>現代的|げんだいてき</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>entrance exam</t>
+          <t>social</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>入試|にゅうし</t>
+          <t>社会的|しゃかいてき</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>to try</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>試みる|こころみる</t>
+          <t>的|まと</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>experiment</t>
+          <t>physical labor</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>実験|じっけん</t>
+          <t>力仕事|ちからしごと</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>cooperation</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>経験|けいけん</t>
+          <t>協力|きょうりょく</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>taking examination</t>
+          <t>endeavor</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>受験|じゅけん</t>
+          <t>努力|どりょく</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>to come to an end</t>
+          <t>sumo wrestler</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>終わる|おわる</t>
+          <t>力士|りきし</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>Western clothes</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>終わり|おわり</t>
+          <t>洋服|ようふく</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>last stop</t>
+          <t>the East</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>終点|しゅうてん</t>
+          <t>東洋|とうよう</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>the last...</t>
+          <t>Western food</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>最終～|さいしゅう～</t>
+          <t>洋食|ようしょく</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>homework</t>
+          <t>the Atlantic</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>宿題|しゅくだい</t>
+          <t>大西洋|たいせいよう</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>boarding house</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>下宿|げしゅく</t>
+          <t>服|ふく</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>lodging</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>宿泊|しゅくはく</t>
+          <t>制服|せいふく</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>inn</t>
+          <t>Japanese clothes</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>宿|やど</t>
+          <t>和服|わふく</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>problem; question</t>
+          <t>dining room</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>問題|もんだい</t>
+          <t>食堂|しょくどう</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>topic of conversation</t>
+          <t>public hall</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>話題|わだい</t>
+          <t>公会堂|こうかいどう</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>dignified; imposing</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>題|だい</t>
+          <t>堂々とした|どうどうとした</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>class</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>目的|もくてき</t>
+          <t>授業|じゅぎょう</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>eye</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>目|め</t>
+          <t>教授|きょうじゅ</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>eye drops</t>
+          <t>to be given</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>目薬|めぐすり</t>
+          <t>授かる|さずかる</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>the second</t>
+          <t>class</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>二番目|にばんめ</t>
+          <t>授業|じゅぎょう</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>one's superiors</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>目上の人|めうえのひと</t>
+          <t>職業|しょくぎょう</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>modern</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>現代的|げんだいてき</t>
+          <t>産業|さんぎょう</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>service industry</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>社会的|しゃかいてき</t>
+          <t>サービス業|サービスぎょう</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>exam</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>的|まと</t>
+          <t>試験|しけん</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>physical labor</t>
+          <t>game; match</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>力仕事|ちからしごと</t>
+          <t>試合|しあい</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>cooperation</t>
+          <t>entrance exam</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>協力|きょうりょく</t>
+          <t>入試|にゅうし</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>endeavor</t>
+          <t>to try</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>努力|どりょく</t>
+          <t>試みる|こころみる</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sumo wrestler</t>
+          <t>experiment</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>力士|りきし</t>
+          <t>実験|じっけん</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>to lend</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>貸す|かす</t>
+          <t>経験|けいけん</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>lending</t>
+          <t>taking examination</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>貸し出し|かしだし</t>
+          <t>受験|じゅけん</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>apartment for rent</t>
+          <t>to lend</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>賃貸マンション|ちんたいマンション</t>
+          <t>貸す|かす</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>library</t>
+          <t>lending</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>図書館|としょかん</t>
+          <t>貸し出し|かしだし</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>apartment for rent</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>地図|ちず</t>
+          <t>賃貸マンション|ちんたいマンション</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>figure</t>
+          <t>library</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>図|ず</t>
+          <t>図書館|としょかん</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>signal</t>
+          <t>map</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>合図|あいず</t>
+          <t>地図|ちず</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>to attempt</t>
+          <t>figure</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>図る|はかる</t>
+          <t>図|ず</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>movie theater</t>
+          <t>signal</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>映画館|えいがかん</t>
+          <t>合図|あいず</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Japanese inn</t>
+          <t>to attempt</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>旅館|りょかん</t>
+          <t>図る|はかる</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>embassy</t>
+          <t>movie theater</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>大使館|たいしかん</t>
+          <t>映画館|えいがかん</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Western clothes</t>
+          <t>Japanese inn</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>洋服|ようふく</t>
+          <t>旅館|りょかん</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>the East</t>
+          <t>embassy</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>東洋|とうよう</t>
+          <t>大使館|たいしかん</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Western food</t>
+          <t>to come to an end</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>洋食|ようしょく</t>
+          <t>終わる|おわる</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>the Atlantic</t>
+          <t>end</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>大西洋|たいせいよう</t>
+          <t>終わり|おわり</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>last stop</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>服|ふく</t>
+          <t>終点|しゅうてん</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>the last...</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>制服|せいふく</t>
+          <t>最終～|さいしゅう～</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Japanese clothes</t>
+          <t>homework</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>和服|わふく</t>
+          <t>宿題|しゅくだい</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>dining room</t>
+          <t>boarding house</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>食堂|しょくどう</t>
+          <t>下宿|げしゅく</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>public hall</t>
+          <t>lodging</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>公会堂|こうかいどう</t>
+          <t>宿泊|しゅくはく</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>dignified; imposing</t>
+          <t>inn</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>堂々とした|どうどうとした</t>
+          <t>宿|やど</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>problem; question</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>授業|じゅぎょう</t>
+          <t>問題|もんだい</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>topic of conversation</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>教授|きょうじゅ</t>
+          <t>話題|わだい</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>to be given</t>
+          <t>title</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>授かる|さずかる</t>
+          <t>題|だい</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-18.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-18.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1778,6 +1778,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>